--- a/Data/EC/NIT-9004929926.xlsx
+++ b/Data/EC/NIT-9004929926.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD83AF4-B57F-4D98-A46F-832CB0827B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B39A4E-CD5E-40B6-864E-0193A4BEB8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D9D3F43-1BC2-40B3-9F8C-E2558094EEC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC150DBA-BBFD-4BED-91B5-72BBFFA70695}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="114">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,283 +65,286 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22809635</t>
+  </si>
+  <si>
+    <t>ALEXANDRA ECHEVERRIA ECHEVERRIA</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>23002620</t>
   </si>
   <si>
     <t>BELQUI DEL CARMEN BALLESTAS ESPINOSA</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1050954886</t>
+  </si>
+  <si>
+    <t>KELLY JOHANA VASQUEZ BELLO</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1050954886</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA VASQUEZ BELLO</t>
-  </si>
-  <si>
-    <t>22809635</t>
-  </si>
-  <si>
-    <t>ALEXANDRA ECHEVERRIA ECHEVERRIA</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -440,7 +443,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -453,9 +458,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -655,23 +658,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,10 +702,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +758,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F49A66-4E3B-91AA-9668-6DE48C7E8439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982ABA5D-C001-F8D8-459C-7C011C2B4F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,8 +1109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FEE848-88FF-477B-8558-410DDF5CD7A5}">
-  <dimension ref="B2:J128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5724608D-CCA0-43A9-AB29-143B992BA242}">
+  <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1131,7 +1134,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1176,7 +1179,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1208,12 +1211,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4329491</v>
+        <v>4365832</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1224,17 +1227,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1261,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1284,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1307,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1330,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1353,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1376,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1399,10 +1402,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1422,10 +1425,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1445,10 +1448,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1468,10 +1471,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1491,10 +1494,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1514,10 +1517,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1537,10 +1540,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1560,10 +1563,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1583,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1606,10 +1609,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1629,10 +1632,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1652,10 +1655,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1675,10 +1678,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1698,10 +1701,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1721,10 +1724,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1744,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1767,10 +1770,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1790,10 +1793,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1813,10 +1816,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1836,10 +1839,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1859,10 +1862,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1882,10 +1885,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1905,10 +1908,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1928,10 +1931,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1951,10 +1954,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1974,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1997,10 +2000,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2020,10 +2023,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2043,10 +2046,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2066,10 +2069,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G50" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2089,10 +2092,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G51" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2103,16 +2106,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>36341</v>
+        <v>15748</v>
       </c>
       <c r="G52" s="18">
         <v>908526</v>
@@ -2126,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>36341</v>
+        <v>17593</v>
       </c>
       <c r="G53" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2149,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2172,19 +2175,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G55" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2195,13 +2198,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2218,19 +2221,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G57" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2241,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2264,19 +2267,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G59" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2287,10 +2290,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>55</v>
@@ -2310,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G61" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2333,13 +2336,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2356,19 +2359,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G63" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2379,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2402,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>36341</v>
+        <v>40600</v>
       </c>
       <c r="G65" s="18">
-        <v>908526</v>
+        <v>1014980</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2425,16 +2428,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>15748</v>
+        <v>36341</v>
       </c>
       <c r="G66" s="18">
         <v>908526</v>
@@ -2448,16 +2451,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>20300</v>
+        <v>40600</v>
       </c>
       <c r="G67" s="18">
         <v>1014980</v>
@@ -2471,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G68" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2494,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
         <v>40600</v>
@@ -2517,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2540,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F71" s="18">
         <v>40600</v>
@@ -2563,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F72" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2586,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
         <v>40600</v>
@@ -2609,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F74" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G74" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2632,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F75" s="18">
         <v>40600</v>
@@ -2655,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F76" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G76" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2678,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F77" s="18">
         <v>40600</v>
@@ -2701,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G78" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2724,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F79" s="18">
         <v>40600</v>
@@ -2747,19 +2750,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F80" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G80" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2770,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F81" s="18">
         <v>40600</v>
@@ -2793,19 +2796,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G82" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2816,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
         <v>40600</v>
@@ -2839,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
-        <v>40600</v>
+        <v>36341</v>
       </c>
       <c r="G84" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2862,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
         <v>40600</v>
@@ -2885,19 +2888,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>17593</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
-        <v>1014980</v>
+        <v>908526</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2908,19 +2911,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
-        <v>48000</v>
+        <v>40600</v>
       </c>
       <c r="G87" s="18">
-        <v>1200000</v>
+        <v>1014980</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2931,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G88" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2954,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
-        <v>48000</v>
+        <v>40600</v>
       </c>
       <c r="G89" s="18">
-        <v>1200000</v>
+        <v>1014980</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2977,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F90" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G90" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3000,19 +3003,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F91" s="18">
-        <v>48000</v>
+        <v>20300</v>
       </c>
       <c r="G91" s="18">
-        <v>1200000</v>
+        <v>1014980</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3023,19 +3026,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F92" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G92" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3046,19 +3049,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F93" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G93" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3069,19 +3072,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F94" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G94" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3092,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F95" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G95" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3115,19 +3118,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F96" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G96" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3138,19 +3141,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F97" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G97" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3161,19 +3164,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F98" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G98" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3184,19 +3187,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>78</v>
       </c>
       <c r="F99" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G99" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3207,19 +3210,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F100" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G100" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3230,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F101" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G101" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3253,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F102" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G102" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3276,19 +3279,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F103" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G103" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3299,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F104" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G104" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3322,19 +3325,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F105" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G105" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3345,19 +3348,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F106" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G106" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3368,19 +3371,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F107" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G107" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3391,19 +3394,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F108" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G108" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3414,19 +3417,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F109" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G109" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3437,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F110" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G110" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3460,19 +3463,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F111" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G111" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3483,19 +3486,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F112" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G112" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3506,19 +3509,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>92</v>
       </c>
       <c r="F113" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G113" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3529,19 +3532,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>93</v>
       </c>
       <c r="F114" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G114" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3552,19 +3555,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F115" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G115" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3575,19 +3578,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>95</v>
       </c>
       <c r="F116" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G116" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3598,19 +3601,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F117" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G117" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3621,19 +3624,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F118" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G118" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3644,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F119" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G119" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3667,19 +3670,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F120" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G120" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3690,61 +3693,73 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F121" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G121" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E122" s="22" t="s">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F122" s="24">
-        <v>48000</v>
-      </c>
-      <c r="G122" s="24">
-        <v>1200000</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="26"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="32"/>
-      <c r="H127" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="F122" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G122" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G123" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="26"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C128" s="32"/>
       <c r="H128" s="1" t="s">
@@ -3753,12 +3768,23 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="H129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B129:C129"/>
     <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="H129:J129"/>
     <mergeCell ref="H128:J128"/>
-    <mergeCell ref="H127:J127"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
